--- a/biology/Botanique/Bolet_radicant/Bolet_radicant.xlsx
+++ b/biology/Botanique/Bolet_radicant/Bolet_radicant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caloboletus radicans
 Caloboletus radicans, le Bolet radicant, anciennement Boletus radicans, est une espèce de champignons (Fungi) basidiomycètes du genre Caloboletus dans la famille des Boletaceae. Il est caractérisé par son pied radicant orné d'un fin réseau limité et sa chair amère bleuissante à la coupe.
@@ -514,12 +526,87 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nom binomial accepté
-Caloboletus radicans (Pers.) Vizzini[1] (2014)
-Basionyme
-Boletus radicans Pers., Syn. meth. fung. (Göttingen) 2: 507 (1801)
-Synonymes
-Caloboletus radicans a pour synonymes[2] :
+          <t>Nom binomial accepté</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caloboletus radicans (Pers.) Vizzini (2014)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bolet_radicant</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_radicant</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Basionyme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boletus radicans Pers., Syn. meth. fung. (Göttingen) 2: 507 (1801)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bolet_radicant</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_radicant</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caloboletus radicans a pour synonymes :
 Versipellis radicans (Pers.) Quél.
 Xerocomus radicans (Pers.) Quél.
 Suillus radicans (Pers.) Kuntze
@@ -549,41 +636,78 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Bolet_radicant</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bolet_radicant</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond devenant convexe à mesure qu’ils vieillissent. Les caractéristiques du Bolet radicant sont les suivantes:
 Son chapeau est de couleur blanchâtre à gris-beige. 
 Ses pores sont petits, de couleur jaune vif puis salis de brunâtre ou de verdâtre, bleuissant au toucher, mais ce bleuissement est souvent fugace, à peine perceptible par temps très sec. Les tubes sont séparés du stipe par une vallécule, jaune clair, puis verdâtre.
-Le stipe assez court par rapport au chapeau, jusqu'à 12 x 7 cm, irrégulier et variable par temps sec, subradicant, souvent à base appointie, concolore (blanchâtre, grisonnant par places, légèrement taché de rougeâtre), mais jaune vif en haut, réticulé de jaunâtre, puis de brunâtre, parfois rougeâtre, bleuissant. Le réseau, très fin, peut passer inaperçu[3].
+Le stipe assez court par rapport au chapeau, jusqu'à 12 x 7 cm, irrégulier et variable par temps sec, subradicant, souvent à base appointie, concolore (blanchâtre, grisonnant par places, légèrement taché de rougeâtre), mais jaune vif en haut, réticulé de jaunâtre, puis de brunâtre, parfois rougeâtre, bleuissant. Le réseau, très fin, peut passer inaperçu.
 Les caractères du chapeau sont assez constants alors que le stipe, au contraire, est très variable, plus ou moins radicant, plus ou moins jaune, plus ou moins taché ou ponctué de rougeâtre vineux et assez facilement déformé par temps sec.
 Sa chair est jaunâtre ou blanchâtre, bleuissant rapidement dans le chapeau puis pâlissante. Parfois rougeâtre dans la moitié inférieure du pied.
-L'odeur est plutôt désagréable. La saveur est plus ou moins amère. La sporée est brun olivacé foncé[3],[4].
-Caractéristiques microscopiques
-Ses spores sont elliptiques fusiformes, lisses, couleur de miel, guttulées, mesurant 11-14,8 µm x 5-7 µm.
+L'odeur est plutôt désagréable. La saveur est plus ou moins amère. La sporée est brun olivacé foncé,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bolet_radicant</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_radicant</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores sont elliptiques fusiformes, lisses, couleur de miel, guttulées, mesurant 11-14,8 µm x 5-7 µm.
 </t>
         </is>
       </c>
